--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema4d-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema4d-Plxnb2.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.130078666666667</v>
+        <v>0.4375153333333333</v>
       </c>
       <c r="H2">
-        <v>3.390236</v>
+        <v>1.312546</v>
       </c>
       <c r="I2">
-        <v>0.009293988592650694</v>
+        <v>0.002535486401940996</v>
       </c>
       <c r="J2">
-        <v>0.009350747007447273</v>
+        <v>0.002555908833496712</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.464632333333334</v>
+        <v>9.363528666666667</v>
       </c>
       <c r="N2">
-        <v>25.393897</v>
+        <v>28.090586</v>
       </c>
       <c r="O2">
-        <v>0.04610470135281236</v>
+        <v>0.04175743631338733</v>
       </c>
       <c r="P2">
-        <v>0.0483653868994476</v>
+        <v>0.04324026421082073</v>
       </c>
       <c r="Q2">
-        <v>9.56570042107689</v>
+        <v>4.096687365772889</v>
       </c>
       <c r="R2">
-        <v>86.09130378969201</v>
+        <v>36.870186291956</v>
       </c>
       <c r="S2">
-        <v>0.0004284965684406051</v>
+        <v>0.0001058754119525107</v>
       </c>
       <c r="T2">
-        <v>0.0004522524968140392</v>
+        <v>0.0001105181732591684</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.130078666666667</v>
+        <v>0.4375153333333333</v>
       </c>
       <c r="H3">
-        <v>3.390236</v>
+        <v>1.312546</v>
       </c>
       <c r="I3">
-        <v>0.009293988592650694</v>
+        <v>0.002535486401940996</v>
       </c>
       <c r="J3">
-        <v>0.009350747007447273</v>
+        <v>0.002555908833496712</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>117.67466</v>
       </c>
       <c r="O3">
-        <v>0.2136479901487249</v>
+        <v>0.1749266505387075</v>
       </c>
       <c r="P3">
-        <v>0.2241239483314023</v>
+        <v>0.1811383852696593</v>
       </c>
       <c r="Q3">
-        <v>44.32720762441778</v>
+        <v>17.16148936492889</v>
       </c>
       <c r="R3">
-        <v>398.94486861976</v>
+        <v>154.45340428436</v>
       </c>
       <c r="S3">
-        <v>0.001985641983284997</v>
+        <v>0.0004435241437779774</v>
       </c>
       <c r="T3">
-        <v>0.002095726339157127</v>
+        <v>0.0004629731989960528</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.130078666666667</v>
+        <v>0.4375153333333333</v>
       </c>
       <c r="H4">
-        <v>3.390236</v>
+        <v>1.312546</v>
       </c>
       <c r="I4">
-        <v>0.009293988592650694</v>
+        <v>0.002535486401940996</v>
       </c>
       <c r="J4">
-        <v>0.009350747007447273</v>
+        <v>0.002555908833496712</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.27063666666667</v>
+        <v>71.284935</v>
       </c>
       <c r="N4">
-        <v>165.81191</v>
+        <v>213.854805</v>
       </c>
       <c r="O4">
-        <v>0.3010451129769252</v>
+        <v>0.3179011075133629</v>
       </c>
       <c r="P4">
-        <v>0.3158064782135008</v>
+        <v>0.3291899382573772</v>
       </c>
       <c r="Q4">
-        <v>62.46016739008444</v>
+        <v>31.18825209817</v>
       </c>
       <c r="R4">
-        <v>562.14150651076</v>
+        <v>280.69426888353</v>
       </c>
       <c r="S4">
-        <v>0.002797909845880782</v>
+        <v>0.0008060339352621143</v>
       </c>
       <c r="T4">
-        <v>0.002953026481087355</v>
+        <v>0.0008413794710902674</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.130078666666667</v>
+        <v>0.4375153333333333</v>
       </c>
       <c r="H5">
-        <v>3.390236</v>
+        <v>1.312546</v>
       </c>
       <c r="I5">
-        <v>0.009293988592650694</v>
+        <v>0.002535486401940996</v>
       </c>
       <c r="J5">
-        <v>0.009350747007447273</v>
+        <v>0.002555908833496712</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.7448065</v>
+        <v>23.0690325</v>
       </c>
       <c r="N5">
-        <v>51.48961300000001</v>
+        <v>46.138065</v>
       </c>
       <c r="O5">
-        <v>0.1402254189345309</v>
+        <v>0.1028782726814826</v>
       </c>
       <c r="P5">
-        <v>0.09806746298324463</v>
+        <v>0.07102102180339065</v>
       </c>
       <c r="Q5">
-        <v>29.09365660311134</v>
+        <v>10.093055443915</v>
       </c>
       <c r="R5">
-        <v>174.561939618668</v>
+        <v>60.55833266349</v>
       </c>
       <c r="S5">
-        <v>0.001303253443977195</v>
+        <v>0.000260846461439077</v>
       </c>
       <c r="T5">
-        <v>0.000917004036018521</v>
+        <v>0.0001815232569912487</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.130078666666667</v>
+        <v>0.4375153333333333</v>
       </c>
       <c r="H6">
-        <v>3.390236</v>
+        <v>1.312546</v>
       </c>
       <c r="I6">
-        <v>0.009293988592650694</v>
+        <v>0.002535486401940996</v>
       </c>
       <c r="J6">
-        <v>0.009350747007447273</v>
+        <v>0.002555908833496712</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>54.89089866666666</v>
+        <v>81.293813</v>
       </c>
       <c r="N6">
-        <v>164.672696</v>
+        <v>243.881439</v>
       </c>
       <c r="O6">
-        <v>0.2989767765870066</v>
+        <v>0.3625365329530597</v>
       </c>
       <c r="P6">
-        <v>0.3136367235724047</v>
+        <v>0.3754103904587522</v>
       </c>
       <c r="Q6">
-        <v>62.03103357736178</v>
+        <v>35.56728969263266</v>
       </c>
       <c r="R6">
-        <v>558.279302196256</v>
+        <v>320.105607233694</v>
       </c>
       <c r="S6">
-        <v>0.002778686751067115</v>
+        <v>0.0009192064495093167</v>
       </c>
       <c r="T6">
-        <v>0.002932737654370231</v>
+        <v>0.0009595147331599744</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3.013073</v>
       </c>
       <c r="I7">
-        <v>0.00826003443147433</v>
+        <v>0.005820447907772805</v>
       </c>
       <c r="J7">
-        <v>0.008310478485264795</v>
+        <v>0.005867329523437988</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.464632333333334</v>
+        <v>9.363528666666667</v>
       </c>
       <c r="N7">
-        <v>25.393897</v>
+        <v>28.090586</v>
       </c>
       <c r="O7">
-        <v>0.04610470135281236</v>
+        <v>0.04175743631338733</v>
       </c>
       <c r="P7">
-        <v>0.0483653868994476</v>
+        <v>0.04324026421082073</v>
       </c>
       <c r="Q7">
-        <v>8.50151837949789</v>
+        <v>9.40433180341978</v>
       </c>
       <c r="R7">
-        <v>76.513665415481</v>
+        <v>84.638986230778</v>
       </c>
       <c r="S7">
-        <v>0.0003808264206270712</v>
+        <v>0.0002430469828242115</v>
       </c>
       <c r="T7">
-        <v>0.0004019395072593671</v>
+        <v>0.0002537048788054075</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3.013073</v>
       </c>
       <c r="I8">
-        <v>0.00826003443147433</v>
+        <v>0.005820447907772805</v>
       </c>
       <c r="J8">
-        <v>0.008310478485264795</v>
+        <v>0.005867329523437988</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>117.67466</v>
       </c>
       <c r="O8">
-        <v>0.2136479901487249</v>
+        <v>0.1749266505387075</v>
       </c>
       <c r="P8">
-        <v>0.2241239483314023</v>
+        <v>0.1811383852696593</v>
       </c>
       <c r="Q8">
         <v>39.39581564779778</v>
@@ -948,10 +948,10 @@
         <v>354.56234083018</v>
       </c>
       <c r="S8">
-        <v>0.001764739754843756</v>
+        <v>0.001018151457141725</v>
       </c>
       <c r="T8">
-        <v>0.001862577250640717</v>
+        <v>0.001062798595720557</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>3.013073</v>
       </c>
       <c r="I9">
-        <v>0.00826003443147433</v>
+        <v>0.005820447907772805</v>
       </c>
       <c r="J9">
-        <v>0.008310478485264795</v>
+        <v>0.005867329523437988</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>55.27063666666667</v>
+        <v>71.284935</v>
       </c>
       <c r="N9">
-        <v>165.81191</v>
+        <v>213.854805</v>
       </c>
       <c r="O9">
-        <v>0.3010451129769252</v>
+        <v>0.3179011075133629</v>
       </c>
       <c r="P9">
-        <v>0.3158064782135008</v>
+        <v>0.3291899382573772</v>
       </c>
       <c r="Q9">
-        <v>55.51148767771445</v>
+        <v>71.595570985085</v>
       </c>
       <c r="R9">
-        <v>499.60338909943</v>
+        <v>644.360138865765</v>
       </c>
       <c r="S9">
-        <v>0.002486642998616481</v>
+        <v>0.001850326836104811</v>
       </c>
       <c r="T9">
-        <v>0.002624502942700544</v>
+        <v>0.001931465843556238</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>3.013073</v>
       </c>
       <c r="I10">
-        <v>0.00826003443147433</v>
+        <v>0.005820447907772805</v>
       </c>
       <c r="J10">
-        <v>0.008310478485264795</v>
+        <v>0.005867329523437988</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.7448065</v>
+        <v>23.0690325</v>
       </c>
       <c r="N10">
-        <v>51.48961300000001</v>
+        <v>46.138065</v>
       </c>
       <c r="O10">
-        <v>0.1402254189345309</v>
+        <v>0.1028782726814826</v>
       </c>
       <c r="P10">
-        <v>0.09806746298324463</v>
+        <v>0.07102102180339065</v>
       </c>
       <c r="Q10">
-        <v>25.85699378512484</v>
+        <v>23.1695596539575</v>
       </c>
       <c r="R10">
-        <v>155.141962710749</v>
+        <v>139.017357923745</v>
       </c>
       <c r="S10">
-        <v>0.001158266788567138</v>
+        <v>0.0005987976269842155</v>
       </c>
       <c r="T10">
-        <v>0.0008149875412267562</v>
+        <v>0.000416703738011767</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>3.013073</v>
       </c>
       <c r="I11">
-        <v>0.00826003443147433</v>
+        <v>0.005820447907772805</v>
       </c>
       <c r="J11">
-        <v>0.008310478485264795</v>
+        <v>0.005867329523437988</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.89089866666666</v>
+        <v>81.293813</v>
       </c>
       <c r="N11">
-        <v>164.672696</v>
+        <v>243.881439</v>
       </c>
       <c r="O11">
-        <v>0.2989767765870066</v>
+        <v>0.3625365329530597</v>
       </c>
       <c r="P11">
-        <v>0.3136367235724047</v>
+        <v>0.3754103904587522</v>
       </c>
       <c r="Q11">
-        <v>55.13009490608978</v>
+        <v>81.64806433911633</v>
       </c>
       <c r="R11">
-        <v>496.170854154808</v>
+        <v>734.832579052047</v>
       </c>
       <c r="S11">
-        <v>0.002469558468819883</v>
+        <v>0.002110125004717843</v>
       </c>
       <c r="T11">
-        <v>0.002606471243437411</v>
+        <v>0.00220265646734402</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>68.17555033333333</v>
+        <v>99.58055866666666</v>
       </c>
       <c r="H12">
-        <v>204.526651</v>
+        <v>298.741676</v>
       </c>
       <c r="I12">
-        <v>0.5606890969499025</v>
+        <v>0.577088694179909</v>
       </c>
       <c r="J12">
-        <v>0.5641132268613344</v>
+        <v>0.5817369361698658</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.464632333333334</v>
+        <v>9.363528666666667</v>
       </c>
       <c r="N12">
-        <v>25.393897</v>
+        <v>28.090586</v>
       </c>
       <c r="O12">
-        <v>0.04610470135281236</v>
+        <v>0.04175743631338733</v>
       </c>
       <c r="P12">
-        <v>0.0483653868994476</v>
+        <v>0.04324026421082073</v>
       </c>
       <c r="Q12">
-        <v>577.0809676943275</v>
+        <v>932.4254157180151</v>
       </c>
       <c r="R12">
-        <v>5193.728709248947</v>
+        <v>8391.828741462135</v>
       </c>
       <c r="S12">
-        <v>0.02585040336665331</v>
+        <v>0.02409774439439341</v>
       </c>
       <c r="T12">
-        <v>0.02728355447224429</v>
+        <v>0.02515445882117835</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>68.17555033333333</v>
+        <v>99.58055866666666</v>
       </c>
       <c r="H13">
-        <v>204.526651</v>
+        <v>298.741676</v>
       </c>
       <c r="I13">
-        <v>0.5606890969499025</v>
+        <v>0.577088694179909</v>
       </c>
       <c r="J13">
-        <v>0.5641132268613344</v>
+        <v>0.5817369361698658</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>117.67466</v>
       </c>
       <c r="O13">
-        <v>0.2136479901487249</v>
+        <v>0.1749266505387075</v>
       </c>
       <c r="P13">
-        <v>0.2241239483314023</v>
+        <v>0.1811383852696593</v>
       </c>
       <c r="Q13">
-        <v>2674.178235262629</v>
+        <v>3906.036127903351</v>
       </c>
       <c r="R13">
-        <v>24067.60411736366</v>
+        <v>35154.32515113016</v>
       </c>
       <c r="S13">
-        <v>0.1197900986616502</v>
+        <v>0.100948192336648</v>
       </c>
       <c r="T13">
-        <v>0.1264312837101303</v>
+        <v>0.1053748892695283</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>68.17555033333333</v>
+        <v>99.58055866666666</v>
       </c>
       <c r="H14">
-        <v>204.526651</v>
+        <v>298.741676</v>
       </c>
       <c r="I14">
-        <v>0.5606890969499025</v>
+        <v>0.577088694179909</v>
       </c>
       <c r="J14">
-        <v>0.5641132268613344</v>
+        <v>0.5817369361698658</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.27063666666667</v>
+        <v>71.284935</v>
       </c>
       <c r="N14">
-        <v>165.81191</v>
+        <v>213.854805</v>
       </c>
       <c r="O14">
-        <v>0.3010451129769252</v>
+        <v>0.3179011075133629</v>
       </c>
       <c r="P14">
-        <v>0.3158064782135008</v>
+        <v>0.3291899382573772</v>
       </c>
       <c r="Q14">
-        <v>3768.106072023712</v>
+        <v>7098.59365181702</v>
       </c>
       <c r="R14">
-        <v>33912.95464821341</v>
+        <v>63887.34286635317</v>
       </c>
       <c r="S14">
-        <v>0.1687927125362136</v>
+        <v>0.1834571350132335</v>
       </c>
       <c r="T14">
-        <v>0.1781506114887317</v>
+        <v>0.1915019460997939</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>68.17555033333333</v>
+        <v>99.58055866666666</v>
       </c>
       <c r="H15">
-        <v>204.526651</v>
+        <v>298.741676</v>
       </c>
       <c r="I15">
-        <v>0.5606890969499025</v>
+        <v>0.577088694179909</v>
       </c>
       <c r="J15">
-        <v>0.5641132268613344</v>
+        <v>0.5817369361698658</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>25.7448065</v>
+        <v>23.0690325</v>
       </c>
       <c r="N15">
-        <v>51.48961300000001</v>
+        <v>46.138065</v>
       </c>
       <c r="O15">
-        <v>0.1402254189345309</v>
+        <v>0.1028782726814826</v>
       </c>
       <c r="P15">
-        <v>0.09806746298324463</v>
+        <v>0.07102102180339065</v>
       </c>
       <c r="Q15">
-        <v>1755.166351362677</v>
+        <v>2297.22714424949</v>
       </c>
       <c r="R15">
-        <v>10530.99810817606</v>
+        <v>13783.36286549694</v>
       </c>
       <c r="S15">
-        <v>0.0786228635118239</v>
+        <v>0.0593698880412414</v>
       </c>
       <c r="T15">
-        <v>0.05532115299358259</v>
+        <v>0.04131555162755771</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>68.17555033333333</v>
+        <v>99.58055866666666</v>
       </c>
       <c r="H16">
-        <v>204.526651</v>
+        <v>298.741676</v>
       </c>
       <c r="I16">
-        <v>0.5606890969499025</v>
+        <v>0.577088694179909</v>
       </c>
       <c r="J16">
-        <v>0.5641132268613344</v>
+        <v>0.5817369361698658</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>54.89089866666666</v>
+        <v>81.293813</v>
       </c>
       <c r="N16">
-        <v>164.672696</v>
+        <v>243.881439</v>
       </c>
       <c r="O16">
-        <v>0.2989767765870066</v>
+        <v>0.3625365329530597</v>
       </c>
       <c r="P16">
-        <v>0.3136367235724047</v>
+        <v>0.3754103904587522</v>
       </c>
       <c r="Q16">
-        <v>3742.217224891233</v>
+        <v>8095.283314683529</v>
       </c>
       <c r="R16">
-        <v>33679.9550240211</v>
+        <v>72857.54983215177</v>
       </c>
       <c r="S16">
-        <v>0.1676330188735615</v>
+        <v>0.2092157343943928</v>
       </c>
       <c r="T16">
-        <v>0.1769266241966455</v>
+        <v>0.2183900903518075</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.214174</v>
+        <v>4.1363315</v>
       </c>
       <c r="H17">
-        <v>4.428348</v>
+        <v>8.272663</v>
       </c>
       <c r="I17">
-        <v>0.01820980123343368</v>
+        <v>0.02397084507248554</v>
       </c>
       <c r="J17">
-        <v>0.01221400569427471</v>
+        <v>0.01610928107528529</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.464632333333334</v>
+        <v>9.363528666666667</v>
       </c>
       <c r="N17">
-        <v>25.393897</v>
+        <v>28.090586</v>
       </c>
       <c r="O17">
-        <v>0.04610470135281236</v>
+        <v>0.04175743631338733</v>
       </c>
       <c r="P17">
-        <v>0.0483653868994476</v>
+        <v>0.04324026421082073</v>
       </c>
       <c r="Q17">
-        <v>18.742168832026</v>
+        <v>38.73065857508634</v>
       </c>
       <c r="R17">
-        <v>112.453012992156</v>
+        <v>232.383951450518</v>
       </c>
       <c r="S17">
-        <v>0.0008395574475615339</v>
+        <v>0.00100096103649239</v>
       </c>
       <c r="T17">
-        <v>0.0005907351109956526</v>
+        <v>0.0006965695699417102</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.214174</v>
+        <v>4.1363315</v>
       </c>
       <c r="H18">
-        <v>4.428348</v>
+        <v>8.272663</v>
       </c>
       <c r="I18">
-        <v>0.01820980123343368</v>
+        <v>0.02397084507248554</v>
       </c>
       <c r="J18">
-        <v>0.01221400569427471</v>
+        <v>0.01610928107528529</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>117.67466</v>
       </c>
       <c r="O18">
-        <v>0.2136479901487249</v>
+        <v>0.1749266505387075</v>
       </c>
       <c r="P18">
-        <v>0.2241239483314023</v>
+        <v>0.1811383852696593</v>
       </c>
       <c r="Q18">
-        <v>86.85072421028001</v>
+        <v>162.2471343032634</v>
       </c>
       <c r="R18">
-        <v>521.10434526168</v>
+        <v>973.48280581958</v>
       </c>
       <c r="S18">
-        <v>0.003890487434530878</v>
+        <v>0.004193139639112176</v>
       </c>
       <c r="T18">
-        <v>0.002737451181143078</v>
+        <v>0.002918009161832258</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.214174</v>
+        <v>4.1363315</v>
       </c>
       <c r="H19">
-        <v>4.428348</v>
+        <v>8.272663</v>
       </c>
       <c r="I19">
-        <v>0.01820980123343368</v>
+        <v>0.02397084507248554</v>
       </c>
       <c r="J19">
-        <v>0.01221400569427471</v>
+        <v>0.01610928107528529</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>55.27063666666667</v>
+        <v>71.284935</v>
       </c>
       <c r="N19">
-        <v>165.81191</v>
+        <v>213.854805</v>
       </c>
       <c r="O19">
-        <v>0.3010451129769252</v>
+        <v>0.3179011075133629</v>
       </c>
       <c r="P19">
-        <v>0.3158064782135008</v>
+        <v>0.3291899382573772</v>
       </c>
       <c r="Q19">
-        <v>122.37880667078</v>
+        <v>294.8581221159525</v>
       </c>
       <c r="R19">
-        <v>734.27284002468</v>
+        <v>1769.148732695715</v>
       </c>
       <c r="S19">
-        <v>0.005481971669606393</v>
+        <v>0.007620358196574393</v>
       </c>
       <c r="T19">
-        <v>0.003857262123188542</v>
+        <v>0.0053030132425439</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.214174</v>
+        <v>4.1363315</v>
       </c>
       <c r="H20">
-        <v>4.428348</v>
+        <v>8.272663</v>
       </c>
       <c r="I20">
-        <v>0.01820980123343368</v>
+        <v>0.02397084507248554</v>
       </c>
       <c r="J20">
-        <v>0.01221400569427471</v>
+        <v>0.01610928107528529</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.7448065</v>
+        <v>23.0690325</v>
       </c>
       <c r="N20">
-        <v>51.48961300000001</v>
+        <v>46.138065</v>
       </c>
       <c r="O20">
-        <v>0.1402254189345309</v>
+        <v>0.1028782726814826</v>
       </c>
       <c r="P20">
-        <v>0.09806746298324463</v>
+        <v>0.07102102180339065</v>
       </c>
       <c r="Q20">
-        <v>57.003481187331</v>
+        <v>95.42116580427374</v>
       </c>
       <c r="R20">
-        <v>228.013924749324</v>
+        <v>381.684663217095</v>
       </c>
       <c r="S20">
-        <v>0.002553477006672775</v>
+        <v>0.002466079135772741</v>
       </c>
       <c r="T20">
-        <v>0.001197796551300424</v>
+        <v>0.001144097602484785</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.214174</v>
+        <v>4.1363315</v>
       </c>
       <c r="H21">
-        <v>4.428348</v>
+        <v>8.272663</v>
       </c>
       <c r="I21">
-        <v>0.01820980123343368</v>
+        <v>0.02397084507248554</v>
       </c>
       <c r="J21">
-        <v>0.01221400569427471</v>
+        <v>0.01610928107528529</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>54.89089866666666</v>
+        <v>81.293813</v>
       </c>
       <c r="N21">
-        <v>164.672696</v>
+        <v>243.881439</v>
       </c>
       <c r="O21">
-        <v>0.2989767765870066</v>
+        <v>0.3625365329530597</v>
       </c>
       <c r="P21">
-        <v>0.3136367235724047</v>
+        <v>0.3754103904587522</v>
       </c>
       <c r="Q21">
-        <v>121.538000664368</v>
+        <v>336.2581594670095</v>
       </c>
       <c r="R21">
-        <v>729.2280039862079</v>
+        <v>2017.548956802057</v>
       </c>
       <c r="S21">
-        <v>0.005444307675062099</v>
+        <v>0.008690307064533845</v>
       </c>
       <c r="T21">
-        <v>0.003830760727647014</v>
+        <v>0.006047591498482639</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>49.06827033333334</v>
+        <v>67.39800266666667</v>
       </c>
       <c r="H22">
-        <v>147.204811</v>
+        <v>202.194008</v>
       </c>
       <c r="I22">
-        <v>0.4035470787925388</v>
+        <v>0.3905845264378918</v>
       </c>
       <c r="J22">
-        <v>0.4060115419516788</v>
+        <v>0.3937305443979143</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.464632333333334</v>
+        <v>9.363528666666667</v>
       </c>
       <c r="N22">
-        <v>25.393897</v>
+        <v>28.090586</v>
       </c>
       <c r="O22">
-        <v>0.04610470135281236</v>
+        <v>0.04175743631338733</v>
       </c>
       <c r="P22">
-        <v>0.0483653868994476</v>
+        <v>0.04324026421082073</v>
       </c>
       <c r="Q22">
-        <v>415.3448676042742</v>
+        <v>631.0831300454098</v>
       </c>
       <c r="R22">
-        <v>3738.103808438468</v>
+        <v>5679.748170408689</v>
       </c>
       <c r="S22">
-        <v>0.01860541754952984</v>
+        <v>0.01630980848772482</v>
       </c>
       <c r="T22">
-        <v>0.01963690531213425</v>
+        <v>0.0170250127676361</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>49.06827033333334</v>
+        <v>67.39800266666667</v>
       </c>
       <c r="H23">
-        <v>147.204811</v>
+        <v>202.194008</v>
       </c>
       <c r="I23">
-        <v>0.4035470787925388</v>
+        <v>0.3905845264378918</v>
       </c>
       <c r="J23">
-        <v>0.4060115419516788</v>
+        <v>0.3937305443979143</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>117.67466</v>
       </c>
       <c r="O23">
-        <v>0.2136479901487249</v>
+        <v>0.1749266505387075</v>
       </c>
       <c r="P23">
-        <v>0.2241239483314023</v>
+        <v>0.1811383852696593</v>
       </c>
       <c r="Q23">
-        <v>1924.697342754363</v>
+        <v>2643.679016159698</v>
       </c>
       <c r="R23">
-        <v>17322.27608478926</v>
+        <v>23793.11114543728</v>
       </c>
       <c r="S23">
-        <v>0.08621702231441504</v>
+        <v>0.06832364296202764</v>
       </c>
       <c r="T23">
-        <v>0.09099690985033101</v>
+        <v>0.07131971504358209</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>49.06827033333334</v>
+        <v>67.39800266666667</v>
       </c>
       <c r="H24">
-        <v>147.204811</v>
+        <v>202.194008</v>
       </c>
       <c r="I24">
-        <v>0.4035470787925388</v>
+        <v>0.3905845264378918</v>
       </c>
       <c r="J24">
-        <v>0.4060115419516788</v>
+        <v>0.3937305443979143</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>55.27063666666667</v>
+        <v>71.284935</v>
       </c>
       <c r="N24">
-        <v>165.81191</v>
+        <v>213.854805</v>
       </c>
       <c r="O24">
-        <v>0.3010451129769252</v>
+        <v>0.3179011075133629</v>
       </c>
       <c r="P24">
-        <v>0.3158064782135008</v>
+        <v>0.3291899382573772</v>
       </c>
       <c r="Q24">
-        <v>2712.034541455446</v>
+        <v>4804.46223922316</v>
       </c>
       <c r="R24">
-        <v>24408.31087309901</v>
+        <v>43240.16015300844</v>
       </c>
       <c r="S24">
-        <v>0.121485875926608</v>
+        <v>0.1241672535321882</v>
       </c>
       <c r="T24">
-        <v>0.1282210751777927</v>
+        <v>0.1296121336003929</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>49.06827033333334</v>
+        <v>67.39800266666667</v>
       </c>
       <c r="H25">
-        <v>147.204811</v>
+        <v>202.194008</v>
       </c>
       <c r="I25">
-        <v>0.4035470787925388</v>
+        <v>0.3905845264378918</v>
       </c>
       <c r="J25">
-        <v>0.4060115419516788</v>
+        <v>0.3937305443979143</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.7448065</v>
+        <v>23.0690325</v>
       </c>
       <c r="N25">
-        <v>51.48961300000001</v>
+        <v>46.138065</v>
       </c>
       <c r="O25">
-        <v>0.1402254189345309</v>
+        <v>0.1028782726814826</v>
       </c>
       <c r="P25">
-        <v>0.09806746298324463</v>
+        <v>0.07102102180339065</v>
       </c>
       <c r="Q25">
-        <v>1263.253125021357</v>
+        <v>1554.80671395242</v>
       </c>
       <c r="R25">
-        <v>7579.518750128144</v>
+        <v>9328.840283714519</v>
       </c>
       <c r="S25">
-        <v>0.05658755818348991</v>
+        <v>0.04018266141604518</v>
       </c>
       <c r="T25">
-        <v>0.03981652186111633</v>
+        <v>0.02796314557834514</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>49.06827033333334</v>
+        <v>67.39800266666667</v>
       </c>
       <c r="H26">
-        <v>147.204811</v>
+        <v>202.194008</v>
       </c>
       <c r="I26">
-        <v>0.4035470787925388</v>
+        <v>0.3905845264378918</v>
       </c>
       <c r="J26">
-        <v>0.4060115419516788</v>
+        <v>0.3937305443979143</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>54.89089866666666</v>
+        <v>81.293813</v>
       </c>
       <c r="N26">
-        <v>164.672696</v>
+        <v>243.881439</v>
       </c>
       <c r="O26">
-        <v>0.2989767765870066</v>
+        <v>0.3625365329530597</v>
       </c>
       <c r="P26">
-        <v>0.3136367235724047</v>
+        <v>0.3754103904587522</v>
       </c>
       <c r="Q26">
-        <v>2693.401454615606</v>
+        <v>5479.040625357502</v>
       </c>
       <c r="R26">
-        <v>24240.61309154046</v>
+        <v>49311.36562821751</v>
       </c>
       <c r="S26">
-        <v>0.120651204818496</v>
+        <v>0.141601160039906</v>
       </c>
       <c r="T26">
-        <v>0.1273401297503045</v>
+        <v>0.147810537407958</v>
       </c>
     </row>
   </sheetData>
